--- a/StructureDefinition-ext-R5-RequestOrchestration.action.xlsx
+++ b/StructureDefinition-ext-R5-RequestOrchestration.action.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.linkId` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.linkId` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.linkId` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:linkId.id</t>
@@ -671,7 +671,8 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.goal` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.goal` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.goal` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RequestOrchestration.action.goal` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:goal.id</t>
@@ -838,7 +839,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.input` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.input` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.input` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:input.id</t>
@@ -854,7 +855,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.input.title` is part of an existing definition because parent element `RequestOrchestration.action.input` requires a cross-version extension.
-Element `RequestOrchestration.action.input.title` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.input.title` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:title.id</t>
@@ -882,7 +883,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.input.requirement` is part of an existing definition because parent element `RequestOrchestration.action.input` requires a cross-version extension.
-Element `RequestOrchestration.action.input.requirement` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.input.requirement` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:requirement.id</t>
@@ -914,7 +915,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.input.relatedData` is part of an existing definition because parent element `RequestOrchestration.action.input` requires a cross-version extension.
-Element `RequestOrchestration.action.input.relatedData` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.input.relatedData` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:relatedData.id</t>
@@ -955,7 +956,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.output` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.output` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.output` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:output.id</t>
@@ -968,7 +969,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.output.title` is part of an existing definition because parent element `RequestOrchestration.action.output` requires a cross-version extension.
-Element `RequestOrchestration.action.output.title` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.output.title` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:title.id</t>
@@ -990,7 +991,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.output.requirement` is part of an existing definition because parent element `RequestOrchestration.action.output` requires a cross-version extension.
-Element `RequestOrchestration.action.output.requirement` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.output.requirement` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:requirement.id</t>
@@ -1015,7 +1016,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.output.relatedData` is part of an existing definition because parent element `RequestOrchestration.action.output` requires a cross-version extension.
-Element `RequestOrchestration.action.output.relatedData` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.output.relatedData` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:relatedData.id</t>
@@ -1139,7 +1140,7 @@
     <t>The relationship of the end of this action to the related action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.relatedAction.endRelationship` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Element `RequestOrchestration.action.relatedAction.endRelationship` is will have a context of RequestGroup.action.relatedAction based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:endRelationship.id</t>
@@ -1258,7 +1259,7 @@
   </si>
   <si>
     <t>Helps in planning of activity. Element `RequestOrchestration.action.location` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.location` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.location` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:location.id</t>
@@ -1313,7 +1314,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:concept.id</t>
@@ -1340,7 +1341,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -1406,7 +1407,7 @@
     <t>The type of participant in the action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.type` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Element `RequestOrchestration.action.participant.type` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:type.id</t>
@@ -1436,7 +1437,8 @@
     <t>Who or what can participate</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.typeCanonical` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.participant.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `RequestOrchestration.action.participant.typeCanonical` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeCanonical.id</t>
@@ -1464,7 +1466,8 @@
     <t>When this element is a reference, it SHOULD be a reference to a definitional resource (for example, a location type, rather than a specific location).</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.typeReference` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.participant.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RequestOrchestration.action.participant.typeReference` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeReference.id</t>
@@ -1495,7 +1498,7 @@
     <t>The role the participant should play in performing the described action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.role` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Element `RequestOrchestration.action.participant.role` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:role.id</t>
@@ -1528,7 +1531,7 @@
     <t>Indicates how the actor will be involved in the action - author, reviewer, witness, etc.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.function` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Element `RequestOrchestration.action.participant.function` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:function.id</t>
@@ -1555,7 +1558,7 @@
     <t>A reference to the actual participant.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.actor[x]` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Element `RequestOrchestration.action.participant.actor[x]` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:actor.id</t>
@@ -1859,7 +1862,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.definition[x]` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.definition[x]` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.definition[x]` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:definition.id</t>
@@ -1897,7 +1900,8 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.transform` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.transform` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.transform` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `RequestOrchestration.action.transform` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:transform.id</t>
@@ -1935,7 +1939,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.dynamicValue` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.dynamicValue` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.dynamicValue` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:dynamicValue.id</t>
@@ -1960,7 +1964,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.dynamicValue.path` is part of an existing definition because parent element `RequestOrchestration.action.dynamicValue` requires a cross-version extension.
-Element `RequestOrchestration.action.dynamicValue.path` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.dynamicValue.path` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:dynamicValue.extension:path.id</t>
@@ -1988,7 +1992,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.dynamicValue.expression` is part of an existing definition because parent element `RequestOrchestration.action.dynamicValue` requires a cross-version extension.
-Element `RequestOrchestration.action.dynamicValue.expression` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+Element `RequestOrchestration.action.dynamicValue.expression` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:dynamicValue.extension:expression.id</t>

--- a/StructureDefinition-ext-R5-RequestOrchestration.action.xlsx
+++ b/StructureDefinition-ext-R5-RequestOrchestration.action.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8457" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8457" uniqueCount="663">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `RequestGroup.action` 0..* `BackboneElement`
 *  R4: `RequestGroup.action` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `RequestOrchestration.action` is mapped to FHIR R4 element `RequestGroup.action`.</t>
+Element `RequestOrchestration.action` has is mapped to FHIR R4 element `RequestGroup.action`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +142,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:RequestGroup.action</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,8 +340,8 @@
     <t>The linkId of the action from the PlanDefinition that corresponds to this action in the RequestOrchestration resource.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.linkId` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.linkId` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.linkId` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.linkId` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:linkId.id</t>
@@ -422,8 +422,8 @@
     <t>A user-visible prefix for the action. For example a section or item numbering such as 1. or A.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.prefix` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.prefix` is mapped to FHIR R4 element `RequestGroup.action.prefix`.</t>
+    <t>Element `RequestOrchestration.action.prefix` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.prefix` has is mapped to FHIR R4 element `RequestGroup.action.prefix`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:prefix.id</t>
@@ -453,8 +453,8 @@
     <t>The title of the action displayed to a user.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.title` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.title` is mapped to FHIR R4 element `RequestGroup.action.title`.</t>
+    <t>Element `RequestOrchestration.action.title` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.title` has is mapped to FHIR R4 element `RequestGroup.action.title`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:title.id</t>
@@ -484,8 +484,8 @@
     <t>A short description of the action used to provide a summary to display to the user.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.description` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.description` is mapped to FHIR R4 element `RequestGroup.action.description`.</t>
+    <t>Element `RequestOrchestration.action.description` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.description` has is mapped to FHIR R4 element `RequestGroup.action.description`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -519,8 +519,8 @@
     <t>A text equivalent of the action to be performed. This provides a human-interpretable description of the action when the definition is consumed by a system that might not be capable of interpreting it dynamically.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.textEquivalent` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.textEquivalent` is mapped to FHIR R4 element `RequestGroup.action.textEquivalent`.</t>
+    <t>Element `RequestOrchestration.action.textEquivalent` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.textEquivalent` has is mapped to FHIR R4 element `RequestGroup.action.textEquivalent`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:textEquivalent.id</t>
@@ -550,8 +550,8 @@
     <t>Indicates how quickly the action should be addressed with respect to other actions.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.priority` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.priority` is mapped to FHIR R4 element `RequestGroup.action.priority`.</t>
+    <t>Element `RequestOrchestration.action.priority` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.priority` has is mapped to FHIR R4 element `RequestGroup.action.priority`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:priority.id</t>
@@ -594,8 +594,8 @@
     <t>A code that provides meaning for the action or action group. For example, a section may have a LOINC code for a section of a documentation template.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.code` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.code` is mapped to FHIR R4 element `RequestGroup.action.code`.</t>
+    <t>Element `RequestOrchestration.action.code` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.code` has is mapped to FHIR R4 element `RequestGroup.action.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -635,8 +635,8 @@
     <t>Didactic or other informational resources associated with the action that can be provided to the CDS recipient. Information resources can include inline text commentary and links to web resources.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.documentation` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.documentation` is mapped to FHIR R4 element `RequestGroup.action.documentation`.</t>
+    <t>Element `RequestOrchestration.action.documentation` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.documentation` has is mapped to FHIR R4 element `RequestGroup.action.documentation`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:documentation.id</t>
@@ -670,9 +670,9 @@
     <t>Goals that are intended to be achieved by following the requests in this action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.goal` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `RequestOrchestration.action.goal` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.goal` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `RequestOrchestration.action.goal` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.goal` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:goal.id</t>
@@ -709,8 +709,8 @@
     <t>When multiple conditions of the same kind are present, the effects are combined using AND semantics, so the overall condition is true only if all of the conditions are true.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.condition` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.condition` is mapped to FHIR R4 element `RequestGroup.action.condition`.</t>
+    <t>Element `RequestOrchestration.action.condition` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.condition` has is mapped to FHIR R4 element `RequestGroup.action.condition`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -734,7 +734,8 @@
     <t>Applicability criteria are used to determine immediate applicability when a plan definition is applied to a given context. Start and stop criteria are carried through application and used to describe enter/exit criteria for an action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.condition.kind` is mapped to FHIR R4 element `RequestGroup.action.condition.kind`.</t>
+    <t>Element `RequestOrchestration.action.condition.kind` is part of an existing definition because parent element `RequestOrchestration.action.condition` requires a cross-version extension.
+Element `RequestOrchestration.action.condition.kind` has is mapped to FHIR R4 element `RequestGroup.action.condition.kind`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:kind.id</t>
@@ -785,7 +786,8 @@
     <t>The expression may be inlined, or may be a reference to a named expression within a logic library referenced by the library element.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.condition.expression` is mapped to FHIR R4 element `RequestGroup.action.condition.expression`.</t>
+    <t>Element `RequestOrchestration.action.condition.expression` is part of an existing definition because parent element `RequestOrchestration.action.condition` requires a cross-version extension.
+Element `RequestOrchestration.action.condition.expression` has is mapped to FHIR R4 element `RequestGroup.action.condition.expression`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:expression.id</t>
@@ -838,8 +840,8 @@
     <t>Defines input data requirements for the action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.input` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.input` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.input` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.input` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:input.id</t>
@@ -855,7 +857,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.input.title` is part of an existing definition because parent element `RequestOrchestration.action.input` requires a cross-version extension.
-Element `RequestOrchestration.action.input.title` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.input.title` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:title.id</t>
@@ -867,6 +869,9 @@
     <t>Extension.extension:input.extension:title.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.input.title</t>
+  </si>
+  <si>
     <t>Extension.extension:input.extension:title.value[x]</t>
   </si>
   <si>
@@ -883,7 +888,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.input.requirement` is part of an existing definition because parent element `RequestOrchestration.action.input` requires a cross-version extension.
-Element `RequestOrchestration.action.input.requirement` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.input.requirement` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:requirement.id</t>
@@ -893,6 +898,9 @@
   </si>
   <si>
     <t>Extension.extension:input.extension:requirement.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.input.requirement</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:requirement.value[x]</t>
@@ -915,7 +923,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.input.relatedData` is part of an existing definition because parent element `RequestOrchestration.action.input` requires a cross-version extension.
-Element `RequestOrchestration.action.input.relatedData` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.input.relatedData` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:relatedData.id</t>
@@ -925,6 +933,9 @@
   </si>
   <si>
     <t>Extension.extension:input.extension:relatedData.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.input.relatedData</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:relatedData.value[x]</t>
@@ -955,8 +966,8 @@
     <t>Defines the outputs of the action, if any.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.output` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.output` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.output` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.output` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:output.id</t>
@@ -969,7 +980,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.output.title` is part of an existing definition because parent element `RequestOrchestration.action.output` requires a cross-version extension.
-Element `RequestOrchestration.action.output.title` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.output.title` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:title.id</t>
@@ -981,6 +992,9 @@
     <t>Extension.extension:output.extension:title.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.output.title</t>
+  </si>
+  <si>
     <t>Extension.extension:output.extension:title.value[x]</t>
   </si>
   <si>
@@ -991,7 +1005,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.output.requirement` is part of an existing definition because parent element `RequestOrchestration.action.output` requires a cross-version extension.
-Element `RequestOrchestration.action.output.requirement` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.output.requirement` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:requirement.id</t>
@@ -1003,6 +1017,9 @@
     <t>Extension.extension:output.extension:requirement.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.output.requirement</t>
+  </si>
+  <si>
     <t>Extension.extension:output.extension:requirement.value[x]</t>
   </si>
   <si>
@@ -1016,7 +1033,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.output.relatedData` is part of an existing definition because parent element `RequestOrchestration.action.output` requires a cross-version extension.
-Element `RequestOrchestration.action.output.relatedData` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.output.relatedData` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:relatedData.id</t>
@@ -1028,6 +1045,9 @@
     <t>Extension.extension:output.extension:relatedData.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.output.relatedData</t>
+  </si>
+  <si>
     <t>Extension.extension:output.extension:relatedData.value[x]</t>
   </si>
   <si>
@@ -1052,8 +1072,8 @@
     <t>A relationship to another action such as "before" or "30-60 minutes after start of".</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.relatedAction` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.relatedAction` is mapped to FHIR R4 element `RequestGroup.action.relatedAction`.</t>
+    <t>Element `RequestOrchestration.action.relatedAction` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.relatedAction` has is mapped to FHIR R4 element `RequestGroup.action.relatedAction`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.id</t>
@@ -1077,7 +1097,8 @@
     <t>The element id of the target related action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.relatedAction.targetId` is mapped to FHIR R4 element `RequestGroup.action.relatedAction.actionId`.</t>
+    <t>Element `RequestOrchestration.action.relatedAction.targetId` is part of an existing definition because parent element `RequestOrchestration.action.relatedAction` requires a cross-version extension.
+Element `RequestOrchestration.action.relatedAction.targetId` has is mapped to FHIR R4 element `RequestGroup.action.relatedAction.actionId`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:targetId.id</t>
@@ -1107,7 +1128,8 @@
     <t>The relationship of this action to the related action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.relatedAction.relationship` is mapped to FHIR R4 element `RequestGroup.action.relatedAction.relationship`.</t>
+    <t>Element `RequestOrchestration.action.relatedAction.relationship` is part of an existing definition because parent element `RequestOrchestration.action.relatedAction` requires a cross-version extension.
+Element `RequestOrchestration.action.relatedAction.relationship` has is mapped to FHIR R4 element `RequestGroup.action.relatedAction.relationship`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:relationship.id</t>
@@ -1140,7 +1162,8 @@
     <t>The relationship of the end of this action to the related action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.relatedAction.endRelationship` is will have a context of RequestGroup.action.relatedAction based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.relatedAction.endRelationship` is part of an existing definition because parent element `RequestOrchestration.action.relatedAction` requires a cross-version extension.
+Element `RequestOrchestration.action.relatedAction.endRelationship` has a context of RequestGroup.action.relatedAction based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:endRelationship.id</t>
@@ -1170,8 +1193,9 @@
     <t>A duration or range of durations to apply to the relationship. For example, 30-60 minutes before.</t>
   </si>
   <si>
-    <t>Note that the target element context `RequestGroup.action.relatedAction.offset[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `RequestGroup.action.relatedAction`.
-Element `RequestOrchestration.action.relatedAction.offset[x]` is mapped to FHIR R4 element `RequestGroup.action.relatedAction.offset[x]`.
+    <t>Element `RequestOrchestration.action.relatedAction.offset[x]` is part of an existing definition because parent element `RequestOrchestration.action.relatedAction` requires a cross-version extension.
+Note that the target element context `RequestGroup.action.relatedAction.offset[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `RequestGroup.action.relatedAction`.
+Element `RequestOrchestration.action.relatedAction.offset[x]` has is mapped to FHIR R4 element `RequestGroup.action.relatedAction.offset[x]`, but has no comparisons.
 Note that the target element context `RequestGroup.action.relatedAction.offset[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `RequestGroup.action.relatedAction`.</t>
   </si>
   <si>
@@ -1218,9 +1242,9 @@
     <t>The intent of the timing element is to provide timing for when the action should be performed. The timing may be absolute (specified as a dateTime or Period) or relative (specified as an Age, Duration, or Range), or it may be a more complex, potentially repeating timing specified using Timing.</t>
   </si>
   <si>
-    <t>Allows prompting for activities and detection of missed planned activities. Element `RequestOrchestration.action.timing[x]` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Allows prompting for activities and detection of missed planned activities. Element `RequestOrchestration.action.timing[x]` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
 Note that the target element context `RequestGroup.action.timing[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `RequestGroup.action`.
-Element `RequestOrchestration.action.timing[x]` is mapped to FHIR R4 element `RequestGroup.action.timing[x]`.
+Element `RequestOrchestration.action.timing[x]` has is mapped to FHIR R4 element `RequestGroup.action.timing[x]`, but has no comparisons.
 Note that the target element context `RequestGroup.action.timing[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `RequestGroup.action`.</t>
   </si>
   <si>
@@ -1258,8 +1282,8 @@
     <t>May reference a specific clinical location or may just identify a type of location.</t>
   </si>
   <si>
-    <t>Helps in planning of activity. Element `RequestOrchestration.action.location` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.location` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Helps in planning of activity. Element `RequestOrchestration.action.location` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.location` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:location.id</t>
@@ -1313,8 +1337,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:concept.id</t>
@@ -1341,8 +1365,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:reference.id</t>
@@ -1385,8 +1409,8 @@
     <t>Because request orchestrations represent potential options for performing activities, some specific participants may still be unknown, so this element allows for both definitional participants (in the same way they are specified in ActivityDefinition and PlanDefinition resources) as well as identifying specific participants when they are known.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.participant` is mapped to FHIR R4 element `RequestGroup.action.participant`.</t>
+    <t>Element `RequestOrchestration.action.participant` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.participant` has is mapped to FHIR R4 element `RequestGroup.action.participant`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:participant.id</t>
@@ -1407,7 +1431,8 @@
     <t>The type of participant in the action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.type` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.participant.type` is part of an existing definition because parent element `RequestOrchestration.action.participant` requires a cross-version extension.
+Element `RequestOrchestration.action.participant.type` has a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:type.id</t>
@@ -1419,6 +1444,9 @@
     <t>Extension.extension:participant.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.participant.type</t>
+  </si>
+  <si>
     <t>Extension.extension:participant.extension:type.value[x]</t>
   </si>
   <si>
@@ -1437,8 +1465,9 @@
     <t>Who or what can participate</t>
   </si>
   <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.participant.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `RequestOrchestration.action.participant.typeCanonical` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.participant.typeCanonical` is part of an existing definition because parent element `RequestOrchestration.action.participant` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.participant.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `RequestOrchestration.action.participant.typeCanonical` has a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeCanonical.id</t>
@@ -1448,6 +1477,9 @@
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeCanonical.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.participant.typeCanonical</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeCanonical.value[x]</t>
@@ -1466,8 +1498,9 @@
     <t>When this element is a reference, it SHOULD be a reference to a definitional resource (for example, a location type, rather than a specific location).</t>
   </si>
   <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.participant.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `RequestOrchestration.action.participant.typeReference` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.participant.typeReference` is part of an existing definition because parent element `RequestOrchestration.action.participant` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.participant.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RequestOrchestration.action.participant.typeReference` has a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeReference.id</t>
@@ -1477,6 +1510,9 @@
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeReference.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.participant.typeReference</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeReference.value[x]</t>
@@ -1498,7 +1534,8 @@
     <t>The role the participant should play in performing the described action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.role` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.participant.role` is part of an existing definition because parent element `RequestOrchestration.action.participant` requires a cross-version extension.
+Element `RequestOrchestration.action.participant.role` has a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:role.id</t>
@@ -1510,6 +1547,9 @@
     <t>Extension.extension:participant.extension:role.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.participant.role</t>
+  </si>
+  <si>
     <t>Extension.extension:participant.extension:role.value[x]</t>
   </si>
   <si>
@@ -1531,7 +1571,8 @@
     <t>Indicates how the actor will be involved in the action - author, reviewer, witness, etc.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.function` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.participant.function` is part of an existing definition because parent element `RequestOrchestration.action.participant` requires a cross-version extension.
+Element `RequestOrchestration.action.participant.function` has a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:function.id</t>
@@ -1543,6 +1584,9 @@
     <t>Extension.extension:participant.extension:function.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.participant.function</t>
+  </si>
+  <si>
     <t>Extension.extension:participant.extension:function.value[x]</t>
   </si>
   <si>
@@ -1558,7 +1602,8 @@
     <t>A reference to the actual participant.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.actor[x]` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.participant.actor[x]` is part of an existing definition because parent element `RequestOrchestration.action.participant` requires a cross-version extension.
+Element `RequestOrchestration.action.participant.actor[x]` has a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:actor.id</t>
@@ -1568,6 +1613,9 @@
   </si>
   <si>
     <t>Extension.extension:participant.extension:actor.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.participant.actor</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:actor.value[x]</t>
@@ -1595,8 +1643,8 @@
     <t>The type of action to perform (create, update, remove).</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.type` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.type` is mapped to FHIR R4 element `RequestGroup.action.type`.</t>
+    <t>Element `RequestOrchestration.action.type` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.type` has is mapped to FHIR R4 element `RequestGroup.action.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -1635,8 +1683,8 @@
     <t>Defines the grouping behavior for the action and its children.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.groupingBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.groupingBehavior` is mapped to FHIR R4 element `RequestGroup.action.groupingBehavior`.</t>
+    <t>Element `RequestOrchestration.action.groupingBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.groupingBehavior` has is mapped to FHIR R4 element `RequestGroup.action.groupingBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:groupingBehavior.id</t>
@@ -1672,8 +1720,8 @@
     <t>Defines the selection behavior for the action and its children.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.selectionBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.selectionBehavior` is mapped to FHIR R4 element `RequestGroup.action.selectionBehavior`.</t>
+    <t>Element `RequestOrchestration.action.selectionBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.selectionBehavior` has is mapped to FHIR R4 element `RequestGroup.action.selectionBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:selectionBehavior.id</t>
@@ -1709,8 +1757,8 @@
     <t>Defines expectations around whether an action is required.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.requiredBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.requiredBehavior` is mapped to FHIR R4 element `RequestGroup.action.requiredBehavior`.</t>
+    <t>Element `RequestOrchestration.action.requiredBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.requiredBehavior` has is mapped to FHIR R4 element `RequestGroup.action.requiredBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:requiredBehavior.id</t>
@@ -1746,8 +1794,8 @@
     <t>Defines whether the action should usually be preselected.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.precheckBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.precheckBehavior` is mapped to FHIR R4 element `RequestGroup.action.precheckBehavior`.</t>
+    <t>Element `RequestOrchestration.action.precheckBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.precheckBehavior` has is mapped to FHIR R4 element `RequestGroup.action.precheckBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:precheckBehavior.id</t>
@@ -1783,8 +1831,8 @@
     <t>Defines whether the action can be selected multiple times.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.cardinalityBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.cardinalityBehavior` is mapped to FHIR R4 element `RequestGroup.action.cardinalityBehavior`.</t>
+    <t>Element `RequestOrchestration.action.cardinalityBehavior` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.cardinalityBehavior` has is mapped to FHIR R4 element `RequestGroup.action.cardinalityBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:cardinalityBehavior.id</t>
@@ -1823,8 +1871,8 @@
     <t>The target resource SHALL be a [Request](https://hl7.org/fhir/request.html) resource with a Request.intent set to "option".</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.resource` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.resource` is mapped to FHIR R4 element `RequestGroup.action.resource`.</t>
+    <t>Element `RequestOrchestration.action.resource` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.resource` has is mapped to FHIR R4 element `RequestGroup.action.resource`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:resource.id</t>
@@ -1861,8 +1909,8 @@
     <t>Note that the definition is optional, and if no definition is specified, a dynamicValue with a root ($this) path can be used to define the entire resource dynamically.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.definition[x]` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.definition[x]` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.definition[x]` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.definition[x]` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:definition.id</t>
@@ -1899,9 +1947,9 @@
     <t>Note that when a referenced ActivityDefinition also defines a transform, the transform specified here generally takes precedence. In addition, if both a transform and dynamic values are specific, the dynamic values are applied to the result of the transform.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.transform` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `RequestOrchestration.action.transform` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.transform` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `RequestOrchestration.action.transform` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.transform` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:transform.id</t>
@@ -1938,8 +1986,8 @@
     <t>Dynamic values are applied in the order in which they are defined in the RequestOrchestration resource. Note that when dynamic values are also specified by a referenced ActivityDefinition, the dynamicValues from the ActivityDefinition are applied first, followed by the dynamicValues specified here. In addition, if both a transform and dynamic values are specific, the dynamic values are applied to the result of the transform.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.dynamicValue` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.dynamicValue` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+    <t>Element `RequestOrchestration.action.dynamicValue` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.dynamicValue` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:dynamicValue.id</t>
@@ -1964,7 +2012,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.dynamicValue.path` is part of an existing definition because parent element `RequestOrchestration.action.dynamicValue` requires a cross-version extension.
-Element `RequestOrchestration.action.dynamicValue.path` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.dynamicValue.path` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:dynamicValue.extension:path.id</t>
@@ -1976,6 +2024,9 @@
     <t>Extension.extension:dynamicValue.extension:path.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.dynamicValue.path</t>
+  </si>
+  <si>
     <t>Extension.extension:dynamicValue.extension:path.value[x]</t>
   </si>
   <si>
@@ -1992,7 +2043,7 @@
   </si>
   <si>
     <t>Element `RequestOrchestration.action.dynamicValue.expression` is part of an existing definition because parent element `RequestOrchestration.action.dynamicValue` requires a cross-version extension.
-Element `RequestOrchestration.action.dynamicValue.expression` is will have a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
+Element `RequestOrchestration.action.dynamicValue.expression` has a context of RequestGroup.action based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:dynamicValue.extension:expression.id</t>
@@ -2004,6 +2055,9 @@
     <t>Extension.extension:dynamicValue.extension:expression.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RequestOrchestration.action.dynamicValue.expression</t>
+  </si>
+  <si>
     <t>Extension.extension:dynamicValue.extension:expression.value[x]</t>
   </si>
   <si>
@@ -2028,8 +2082,8 @@
     <t>Sub actions.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.action` is part of an existing definition because parent element `RequestOrchestration.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `RequestOrchestration.action.action` is mapped to FHIR R4 element `RequestGroup.action.action`.</t>
+    <t>Element `RequestOrchestration.action.action` is part of an existing definition because parent element `RequestOrchestration.action` requires a cross-version extension.
+Element `RequestOrchestration.action.action` has is mapped to FHIR R4 element `RequestGroup.action.action`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:action.id</t>
@@ -2381,7 +2435,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="237.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="216.546875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -9782,7 +9836,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9844,7 +9898,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>237</v>
@@ -9947,13 +10001,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9978,14 +10032,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10054,7 +10108,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>230</v>
@@ -10157,7 +10211,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>232</v>
@@ -10262,7 +10316,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>234</v>
@@ -10305,7 +10359,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -10367,7 +10421,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>237</v>
@@ -10393,13 +10447,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10470,13 +10524,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -10501,16 +10555,16 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10579,7 +10633,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>230</v>
@@ -10682,7 +10736,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>232</v>
@@ -10787,7 +10841,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>234</v>
@@ -10830,7 +10884,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10892,7 +10946,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>237</v>
@@ -10918,16 +10972,16 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10997,7 +11051,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -11040,7 +11094,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -11102,7 +11156,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -11205,13 +11259,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11236,14 +11290,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11312,7 +11366,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -11415,7 +11469,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -11518,7 +11572,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
@@ -11556,7 +11610,7 @@
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11625,7 +11679,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>230</v>
@@ -11728,7 +11782,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>232</v>
@@ -11833,7 +11887,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>234</v>
@@ -11876,7 +11930,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>136</v>
+        <v>310</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11938,7 +11992,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>237</v>
@@ -12041,13 +12095,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -12072,14 +12126,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12148,7 +12202,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>230</v>
@@ -12251,7 +12305,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>232</v>
@@ -12356,7 +12410,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>234</v>
@@ -12399,7 +12453,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -12461,7 +12515,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>237</v>
@@ -12487,13 +12541,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12564,13 +12618,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12595,16 +12649,16 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12673,7 +12727,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>230</v>
@@ -12776,7 +12830,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>232</v>
@@ -12881,7 +12935,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>234</v>
@@ -12924,7 +12978,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12986,7 +13040,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>237</v>
@@ -13015,13 +13069,13 @@
         <v>87</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13091,7 +13145,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -13134,7 +13188,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -13196,7 +13250,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>122</v>
@@ -13299,13 +13353,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -13330,14 +13384,14 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13406,7 +13460,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -13509,7 +13563,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -13520,7 +13574,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -13612,13 +13666,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13643,14 +13697,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13719,7 +13773,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>230</v>
@@ -13822,7 +13876,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>232</v>
@@ -13927,7 +13981,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>234</v>
@@ -13970,7 +14024,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -14032,7 +14086,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>237</v>
@@ -14058,13 +14112,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14135,13 +14189,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14166,14 +14220,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14242,7 +14296,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>230</v>
@@ -14345,7 +14399,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>232</v>
@@ -14450,7 +14504,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>234</v>
@@ -14493,7 +14547,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14555,7 +14609,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>237</v>
@@ -14584,10 +14638,10 @@
         <v>176</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14617,10 +14671,10 @@
         <v>177</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -14658,13 +14712,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14689,14 +14743,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14765,7 +14819,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>230</v>
@@ -14868,7 +14922,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>232</v>
@@ -14973,7 +15027,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>234</v>
@@ -15016,7 +15070,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -15078,7 +15132,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>237</v>
@@ -15107,10 +15161,10 @@
         <v>176</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15140,10 +15194,10 @@
         <v>177</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -15181,13 +15235,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15212,14 +15266,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15288,7 +15342,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>230</v>
@@ -15391,7 +15445,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>232</v>
@@ -15496,7 +15550,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>234</v>
@@ -15539,7 +15593,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15601,7 +15655,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>237</v>
@@ -15627,13 +15681,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15704,7 +15758,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>113</v>
@@ -15747,7 +15801,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -15809,7 +15863,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>122</v>
@@ -15912,13 +15966,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15943,16 +15997,16 @@
         <v>93</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -16021,7 +16075,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>105</v>
@@ -16124,7 +16178,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>107</v>
@@ -16229,7 +16283,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>113</v>
@@ -16272,7 +16326,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>77</v>
@@ -16334,7 +16388,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>122</v>
@@ -16360,16 +16414,16 @@
         <v>77</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -16439,13 +16493,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>77</v>
@@ -16470,16 +16524,16 @@
         <v>93</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>77</v>
@@ -16548,7 +16602,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>105</v>
@@ -16651,7 +16705,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>107</v>
@@ -16754,13 +16808,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16785,10 +16839,10 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -16859,7 +16913,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>230</v>
@@ -16962,7 +17016,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>232</v>
@@ -17067,7 +17121,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>234</v>
@@ -17110,7 +17164,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -17172,7 +17226,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>237</v>
@@ -17207,7 +17261,7 @@
         <v>257</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -17215,7 +17269,7 @@
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>77</v>
@@ -17277,13 +17331,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -17308,14 +17362,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -17384,7 +17438,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>230</v>
@@ -17487,7 +17541,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>232</v>
@@ -17592,7 +17646,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>234</v>
@@ -17635,7 +17689,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17697,7 +17751,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>237</v>
@@ -17726,10 +17780,10 @@
         <v>190</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17800,13 +17854,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17831,14 +17885,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17907,7 +17961,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>230</v>
@@ -18010,7 +18064,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>232</v>
@@ -18115,7 +18169,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>234</v>
@@ -18158,7 +18212,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -18220,7 +18274,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>237</v>
@@ -18246,13 +18300,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -18323,7 +18377,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>113</v>
@@ -18366,7 +18420,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -18428,7 +18482,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>122</v>
@@ -18531,13 +18585,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>77</v>
@@ -18562,16 +18616,16 @@
         <v>93</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>77</v>
@@ -18640,7 +18694,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>105</v>
@@ -18743,7 +18797,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>107</v>
@@ -18846,13 +18900,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18877,14 +18931,14 @@
         <v>93</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -18953,7 +19007,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>230</v>
@@ -19056,7 +19110,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>232</v>
@@ -19161,7 +19215,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>234</v>
@@ -19204,7 +19258,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19266,7 +19320,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>237</v>
@@ -19295,10 +19349,10 @@
         <v>176</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19328,10 +19382,10 @@
         <v>177</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>77</v>
@@ -19369,13 +19423,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19400,14 +19454,14 @@
         <v>93</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19476,7 +19530,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -19579,7 +19633,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>232</v>
@@ -19684,7 +19738,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>234</v>
@@ -19727,7 +19781,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19789,7 +19843,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>237</v>
@@ -19815,13 +19869,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19892,13 +19946,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19923,16 +19977,16 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -20001,7 +20055,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>230</v>
@@ -20104,7 +20158,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>232</v>
@@ -20209,7 +20263,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>234</v>
@@ -20252,7 +20306,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20314,7 +20368,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>237</v>
@@ -20340,16 +20394,16 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -20419,13 +20473,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20450,14 +20504,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20526,7 +20580,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>230</v>
@@ -20629,7 +20683,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>232</v>
@@ -20734,7 +20788,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>234</v>
@@ -20777,7 +20831,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20839,7 +20893,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>237</v>
@@ -20868,10 +20922,10 @@
         <v>190</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20901,10 +20955,10 @@
         <v>191</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>77</v>
@@ -20942,13 +20996,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20973,14 +21027,14 @@
         <v>93</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -21049,7 +21103,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>230</v>
@@ -21152,7 +21206,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>232</v>
@@ -21257,7 +21311,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>234</v>
@@ -21300,7 +21354,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21362,7 +21416,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>237</v>
@@ -21391,10 +21445,10 @@
         <v>190</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21465,13 +21519,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21496,14 +21550,14 @@
         <v>93</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21572,7 +21626,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>230</v>
@@ -21675,7 +21729,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>232</v>
@@ -21780,7 +21834,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>234</v>
@@ -21823,7 +21877,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21885,7 +21939,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>237</v>
@@ -21911,13 +21965,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21988,7 +22042,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>113</v>
@@ -22031,7 +22085,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>77</v>
@@ -22093,7 +22147,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>122</v>
@@ -22196,13 +22250,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>77</v>
@@ -22227,14 +22281,14 @@
         <v>93</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>77</v>
@@ -22303,7 +22357,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>105</v>
@@ -22406,7 +22460,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>107</v>
@@ -22511,7 +22565,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>113</v>
@@ -22554,7 +22608,7 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>77</v>
@@ -22616,7 +22670,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>122</v>
@@ -22645,10 +22699,10 @@
         <v>190</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -22675,13 +22729,13 @@
         <v>77</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>77</v>
@@ -22719,13 +22773,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D195" t="s" s="2">
         <v>77</v>
@@ -22750,14 +22804,14 @@
         <v>93</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>77</v>
@@ -22826,7 +22880,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>105</v>
@@ -22929,7 +22983,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>107</v>
@@ -23034,7 +23088,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>113</v>
@@ -23077,7 +23131,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>77</v>
@@ -23139,7 +23193,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>122</v>
@@ -23168,10 +23222,10 @@
         <v>176</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -23201,10 +23255,10 @@
         <v>177</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>77</v>
@@ -23242,13 +23296,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D200" t="s" s="2">
         <v>77</v>
@@ -23273,14 +23327,14 @@
         <v>93</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>77</v>
@@ -23349,7 +23403,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>105</v>
@@ -23452,7 +23506,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>107</v>
@@ -23557,7 +23611,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>113</v>
@@ -23600,7 +23654,7 @@
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" t="s" s="2">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="S203" t="s" s="2">
         <v>77</v>
@@ -23662,7 +23716,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>122</v>
@@ -23691,10 +23745,10 @@
         <v>176</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -23724,10 +23778,10 @@
         <v>177</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AA204" t="s" s="2">
         <v>77</v>
@@ -23765,13 +23819,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>77</v>
@@ -23796,14 +23850,14 @@
         <v>93</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>77</v>
@@ -23872,7 +23926,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>105</v>
@@ -23975,7 +24029,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>107</v>
@@ -24080,7 +24134,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>113</v>
@@ -24123,7 +24177,7 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>77</v>
@@ -24185,7 +24239,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>122</v>
@@ -24214,10 +24268,10 @@
         <v>176</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -24247,10 +24301,10 @@
         <v>177</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>77</v>
@@ -24288,13 +24342,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="D210" t="s" s="2">
         <v>77</v>
@@ -24319,14 +24373,14 @@
         <v>93</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>77</v>
@@ -24395,7 +24449,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>105</v>
@@ -24498,7 +24552,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>107</v>
@@ -24603,7 +24657,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>113</v>
@@ -24646,7 +24700,7 @@
       </c>
       <c r="Q213" s="2"/>
       <c r="R213" t="s" s="2">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="S213" t="s" s="2">
         <v>77</v>
@@ -24708,7 +24762,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>122</v>
@@ -24737,10 +24791,10 @@
         <v>176</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -24770,10 +24824,10 @@
         <v>177</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>77</v>
@@ -24811,13 +24865,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>77</v>
@@ -24842,14 +24896,14 @@
         <v>93</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>77</v>
@@ -24918,7 +24972,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>105</v>
@@ -25021,7 +25075,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>107</v>
@@ -25126,7 +25180,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>113</v>
@@ -25169,7 +25223,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -25231,7 +25285,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>122</v>
@@ -25260,10 +25314,10 @@
         <v>176</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -25293,10 +25347,10 @@
         <v>177</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="Z219" t="s" s="2">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="AA219" t="s" s="2">
         <v>77</v>
@@ -25334,13 +25388,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>77</v>
@@ -25365,16 +25419,16 @@
         <v>93</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>77</v>
@@ -25443,7 +25497,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>105</v>
@@ -25546,7 +25600,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>107</v>
@@ -25651,7 +25705,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>113</v>
@@ -25694,7 +25748,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>77</v>
@@ -25756,7 +25810,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>122</v>
@@ -25782,16 +25836,16 @@
         <v>77</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -25861,13 +25915,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>77</v>
@@ -25892,16 +25946,16 @@
         <v>93</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>77</v>
@@ -25970,7 +26024,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>105</v>
@@ -26073,7 +26127,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>107</v>
@@ -26178,7 +26232,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>113</v>
@@ -26221,7 +26275,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>77</v>
@@ -26283,7 +26337,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>122</v>
@@ -26309,16 +26363,16 @@
         <v>77</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
@@ -26388,13 +26442,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>77</v>
@@ -26419,16 +26473,16 @@
         <v>93</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>77</v>
@@ -26497,7 +26551,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>105</v>
@@ -26600,7 +26654,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>107</v>
@@ -26705,7 +26759,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>113</v>
@@ -26748,7 +26802,7 @@
       </c>
       <c r="Q233" s="2"/>
       <c r="R233" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="S233" t="s" s="2">
         <v>77</v>
@@ -26810,7 +26864,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>122</v>
@@ -26836,16 +26890,16 @@
         <v>77</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
@@ -26915,13 +26969,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="D235" t="s" s="2">
         <v>77</v>
@@ -26946,16 +27000,16 @@
         <v>93</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>77</v>
@@ -27024,7 +27078,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>105</v>
@@ -27127,7 +27181,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>107</v>
@@ -27230,13 +27284,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>77</v>
@@ -27261,16 +27315,16 @@
         <v>93</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="O238" t="s" s="2">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>77</v>
@@ -27339,7 +27393,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>230</v>
@@ -27442,7 +27496,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>232</v>
@@ -27547,7 +27601,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>234</v>
@@ -27590,7 +27644,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>77</v>
@@ -27652,7 +27706,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>237</v>
@@ -27681,13 +27735,13 @@
         <v>87</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
@@ -27757,7 +27811,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>107</v>
@@ -27788,16 +27842,16 @@
         <v>93</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>77</v>
@@ -27866,7 +27920,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>230</v>
@@ -27969,7 +28023,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>232</v>
@@ -28074,7 +28128,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>234</v>
@@ -28117,7 +28171,7 @@
       </c>
       <c r="Q246" s="2"/>
       <c r="R246" t="s" s="2">
-        <v>241</v>
+        <v>649</v>
       </c>
       <c r="S246" t="s" s="2">
         <v>77</v>
@@ -28179,7 +28233,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>237</v>
@@ -28208,13 +28262,13 @@
         <v>251</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
@@ -28284,7 +28338,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>113</v>
@@ -28327,7 +28381,7 @@
       </c>
       <c r="Q248" s="2"/>
       <c r="R248" t="s" s="2">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="S248" t="s" s="2">
         <v>77</v>
@@ -28389,7 +28443,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>122</v>
@@ -28492,13 +28546,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="D250" t="s" s="2">
         <v>77</v>
@@ -28523,14 +28577,14 @@
         <v>93</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>77</v>
@@ -28599,7 +28653,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>105</v>
@@ -28702,7 +28756,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>107</v>
@@ -28807,7 +28861,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>113</v>
@@ -28912,7 +28966,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>122</v>

--- a/StructureDefinition-ext-R5-RequestOrchestration.action.xlsx
+++ b/StructureDefinition-ext-R5-RequestOrchestration.action.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8457" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8457" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -573,15 +573,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-request-priority-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:code</t>
   </si>
   <si>
@@ -620,7 +611,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-code-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-action-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:documentation</t>
@@ -690,7 +681,7 @@
     <t>Extension.extension:goal.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Goal|0.0.1-snapshot-3|Goal|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Goal|Goal)
 </t>
   </si>
   <si>
@@ -765,12 +756,6 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>The kind of condition for the action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-condition-kind-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:condition.extension:expression</t>
   </si>
   <si>
@@ -1145,12 +1130,6 @@
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:relationship.value[x]</t>
-  </si>
-  <si>
-    <t>Defines the types of relationships between actions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-relationship-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:endRelationship</t>
@@ -1337,8 +1316,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:concept.id</t>
@@ -1365,8 +1343,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:reference.id</t>
@@ -1381,7 +1358,7 @@
     <t>Extension.extension:location.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -1450,10 +1427,13 @@
     <t>Extension.extension:participant.extension:type.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The type of participant in the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-participant-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-action-participant-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeCanonical</t>
@@ -1485,7 +1465,7 @@
     <t>Extension.extension:participant.extension:typeCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|0.0.1-snapshot-3|CapabilityStatement|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|CapabilityStatement)
 </t>
   </si>
   <si>
@@ -1518,7 +1498,7 @@
     <t>Extension.extension:participant.extension:typeReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1553,12 +1533,6 @@
     <t>Extension.extension:participant.extension:role.value[x]</t>
   </si>
   <si>
-    <t>Defines roles played by participants for the action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-participant-role-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:participant.extension:function</t>
   </si>
   <si>
@@ -1621,8 +1595,8 @@
     <t>Extension.extension:participant.extension:actor.value[x]</t>
   </si>
   <si>
-    <t>canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|0.0.1-snapshot-3|CapabilityStatement|4.0.1)
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)</t>
+    <t>canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|CapabilityStatement)
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)</t>
   </si>
   <si>
     <t>Extension.extension:participant.url</t>
@@ -1662,15 +1636,6 @@
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The type of action to be performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:groupingBehavior</t>
   </si>
   <si>
@@ -1702,12 +1667,6 @@
     <t>Extension.extension:groupingBehavior.value[x]</t>
   </si>
   <si>
-    <t>Defines organization behavior of a group.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-grouping-behavior-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:selectionBehavior</t>
   </si>
   <si>
@@ -1739,12 +1698,6 @@
     <t>Extension.extension:selectionBehavior.value[x]</t>
   </si>
   <si>
-    <t>Defines selection behavior of a group.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-selection-behavior-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:requiredBehavior</t>
   </si>
   <si>
@@ -1776,12 +1729,6 @@
     <t>Extension.extension:requiredBehavior.value[x]</t>
   </si>
   <si>
-    <t>Defines expectations around whether an action or action group is required.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-required-behavior-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:precheckBehavior</t>
   </si>
   <si>
@@ -1813,12 +1760,6 @@
     <t>Extension.extension:precheckBehavior.value[x]</t>
   </si>
   <si>
-    <t>Defines selection frequency behavior for an action or group.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-precheck-behavior-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:cardinalityBehavior</t>
   </si>
   <si>
@@ -1850,12 +1791,6 @@
     <t>Extension.extension:cardinalityBehavior.value[x]</t>
   </si>
   <si>
-    <t>Defines behavior for an action or a group for how many times that item may be repeated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-cardinality-behavior-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:resource</t>
   </si>
   <si>
@@ -1890,7 +1825,7 @@
     <t>Extension.extension:resource.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -1928,7 +1863,7 @@
     <t>Extension.extension:definition.value[x]</t>
   </si>
   <si>
-    <t>canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|0.0.1-snapshot-3|ObservationDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|0.0.1-snapshot-3|Questionnaire|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SpecimenDefinition|0.0.1-snapshot-3|SpecimenDefinition|4.0.1)
+    <t>canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|ObservationDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|Questionnaire|http://hl7.org/fhir/5.0/StructureDefinition/profile-SpecimenDefinition|SpecimenDefinition)
 uri</t>
   </si>
   <si>
@@ -1967,7 +1902,7 @@
     <t>Extension.extension:transform.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureMap|0.0.1-snapshot-3|StructureMap|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureMap|StructureMap)
 </t>
   </si>
   <si>
@@ -2445,8 +2380,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="31.0078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -5977,13 +5912,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -6021,13 +5956,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -6052,14 +5987,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6128,7 +6063,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -6231,7 +6166,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -6336,7 +6271,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -6379,7 +6314,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6441,7 +6376,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -6467,13 +6402,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6500,11 +6435,11 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6542,13 +6477,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6573,14 +6508,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6649,7 +6584,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6752,7 +6687,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6857,7 +6792,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -6900,7 +6835,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6962,7 +6897,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -6988,13 +6923,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7065,13 +7000,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -7096,14 +7031,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7172,7 +7107,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -7275,7 +7210,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -7380,7 +7315,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -7423,7 +7358,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7485,7 +7420,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -7511,13 +7446,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7588,13 +7523,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7619,16 +7554,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7697,7 +7632,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -7800,7 +7735,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -7903,13 +7838,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7934,16 +7869,16 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O53" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8012,10 +7947,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8115,10 +8050,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8220,10 +8155,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8263,7 +8198,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -8325,10 +8260,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8354,13 +8289,13 @@
         <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8386,13 +8321,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8430,13 +8365,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -8461,16 +8396,16 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8539,10 +8474,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8642,10 +8577,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8747,10 +8682,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8790,7 +8725,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8852,10 +8787,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8878,16 +8813,16 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8957,7 +8892,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -9000,7 +8935,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -9062,7 +8997,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -9088,13 +9023,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9165,13 +9100,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -9196,14 +9131,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9272,7 +9207,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -9375,7 +9310,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -9478,7 +9413,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
@@ -9512,11 +9447,11 @@
         <v>137</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9585,10 +9520,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9688,10 +9623,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9793,10 +9728,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9836,7 +9771,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9898,10 +9833,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9930,7 +9865,7 @@
         <v>137</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10001,13 +9936,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -10032,14 +9967,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10108,10 +10043,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10211,10 +10146,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10316,10 +10251,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10359,7 +10294,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -10421,10 +10356,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10447,13 +10382,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10524,13 +10459,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -10555,16 +10490,16 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10633,10 +10568,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10736,10 +10671,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10841,10 +10776,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10884,7 +10819,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10946,10 +10881,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10972,16 +10907,16 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11051,7 +10986,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -11094,7 +11029,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -11156,7 +11091,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -11182,13 +11117,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11259,13 +11194,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11290,14 +11225,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11366,7 +11301,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -11469,7 +11404,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -11572,7 +11507,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
@@ -11606,11 +11541,11 @@
         <v>137</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11679,10 +11614,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11782,10 +11717,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11887,10 +11822,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11930,7 +11865,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11992,10 +11927,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12024,7 +11959,7 @@
         <v>137</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12095,13 +12030,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -12126,14 +12061,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12202,10 +12137,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12305,10 +12240,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12410,10 +12345,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12453,7 +12388,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -12515,10 +12450,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12541,13 +12476,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12618,13 +12553,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12649,16 +12584,16 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12727,10 +12662,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12830,10 +12765,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12935,10 +12870,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12978,7 +12913,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -13040,10 +12975,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13069,13 +13004,13 @@
         <v>87</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13145,7 +13080,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -13188,7 +13123,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -13250,7 +13185,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>122</v>
@@ -13276,13 +13211,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13353,13 +13288,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -13384,14 +13319,14 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13460,7 +13395,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -13563,7 +13498,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -13574,7 +13509,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -13666,13 +13601,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13697,14 +13632,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13773,10 +13708,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13876,10 +13811,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13981,10 +13916,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14024,7 +13959,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -14086,10 +14021,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14112,13 +14047,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14189,13 +14124,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14220,14 +14155,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14296,10 +14231,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14399,10 +14334,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14504,10 +14439,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14547,7 +14482,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14609,10 +14544,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14638,10 +14573,10 @@
         <v>176</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14668,13 +14603,13 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -14712,13 +14647,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14743,14 +14678,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14819,10 +14754,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14922,10 +14857,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15027,10 +14962,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15070,7 +15005,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -15132,10 +15067,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15161,10 +15096,10 @@
         <v>176</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15191,13 +15126,13 @@
         <v>77</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -15235,13 +15170,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15266,14 +15201,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15342,10 +15277,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15445,10 +15380,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15550,10 +15485,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15593,7 +15528,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15655,10 +15590,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15681,13 +15616,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15758,7 +15693,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>113</v>
@@ -15801,7 +15736,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -15863,7 +15798,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>122</v>
@@ -15889,13 +15824,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15966,13 +15901,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15997,16 +15932,16 @@
         <v>93</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -16075,7 +16010,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>105</v>
@@ -16178,7 +16113,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>107</v>
@@ -16283,7 +16218,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>113</v>
@@ -16326,7 +16261,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>77</v>
@@ -16388,7 +16323,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>122</v>
@@ -16414,16 +16349,16 @@
         <v>77</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -16493,13 +16428,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>77</v>
@@ -16524,16 +16459,16 @@
         <v>93</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>77</v>
@@ -16602,7 +16537,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>105</v>
@@ -16705,7 +16640,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>107</v>
@@ -16808,13 +16743,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16839,10 +16774,10 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -16913,10 +16848,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -17016,10 +16951,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -17121,10 +17056,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17164,7 +17099,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -17226,10 +17161,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17255,13 +17190,13 @@
         <v>87</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -17269,7 +17204,7 @@
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>77</v>
@@ -17331,13 +17266,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -17362,14 +17297,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -17438,10 +17373,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17541,10 +17476,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17646,10 +17581,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17689,7 +17624,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17751,10 +17686,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17777,13 +17712,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17854,13 +17789,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17885,14 +17820,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17961,10 +17896,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -18064,10 +17999,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18169,10 +18104,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18212,7 +18147,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -18274,10 +18209,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18300,13 +18235,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -18377,7 +18312,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>113</v>
@@ -18420,7 +18355,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -18482,7 +18417,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>122</v>
@@ -18508,13 +18443,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -18585,13 +18520,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>77</v>
@@ -18616,16 +18551,16 @@
         <v>93</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>77</v>
@@ -18694,7 +18629,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>105</v>
@@ -18797,7 +18732,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>107</v>
@@ -18900,13 +18835,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18931,14 +18866,14 @@
         <v>93</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -19007,10 +18942,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19110,10 +19045,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19215,10 +19150,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19258,7 +19193,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19320,10 +19255,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19349,10 +19284,10 @@
         <v>176</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19379,13 +19314,13 @@
         <v>77</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>177</v>
+        <v>449</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>77</v>
@@ -19423,13 +19358,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19454,14 +19389,14 @@
         <v>93</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19530,10 +19465,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19633,10 +19568,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19738,10 +19673,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19781,7 +19716,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19843,10 +19778,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19869,13 +19804,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19946,13 +19881,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19977,16 +19912,16 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -20055,10 +19990,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20158,10 +20093,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20263,10 +20198,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20306,7 +20241,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20368,10 +20303,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20394,16 +20329,16 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -20473,13 +20408,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20504,14 +20439,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20580,10 +20515,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20683,10 +20618,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20788,10 +20723,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20831,7 +20766,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20893,10 +20828,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20919,13 +20854,13 @@
         <v>77</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20952,13 +20887,13 @@
         <v>77</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>77</v>
@@ -20996,13 +20931,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -21027,14 +20962,14 @@
         <v>93</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -21103,10 +21038,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21206,10 +21141,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21311,10 +21246,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21354,7 +21289,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21416,10 +21351,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21442,13 +21377,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21519,13 +21454,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21550,14 +21485,14 @@
         <v>93</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21626,10 +21561,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21729,10 +21664,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21834,10 +21769,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21877,7 +21812,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21939,10 +21874,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21965,13 +21900,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -22042,7 +21977,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>113</v>
@@ -22085,7 +22020,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>77</v>
@@ -22147,7 +22082,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>122</v>
@@ -22173,13 +22108,13 @@
         <v>77</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -22250,13 +22185,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>77</v>
@@ -22281,14 +22216,14 @@
         <v>93</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>77</v>
@@ -22357,7 +22292,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>105</v>
@@ -22460,7 +22395,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>107</v>
@@ -22565,7 +22500,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>113</v>
@@ -22608,7 +22543,7 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>77</v>
@@ -22670,7 +22605,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>122</v>
@@ -22696,13 +22631,13 @@
         <v>77</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -22729,13 +22664,13 @@
         <v>77</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>524</v>
+        <v>77</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>77</v>
@@ -22773,13 +22708,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D195" t="s" s="2">
         <v>77</v>
@@ -22804,14 +22739,14 @@
         <v>93</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>77</v>
@@ -22880,7 +22815,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>105</v>
@@ -22983,7 +22918,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>107</v>
@@ -23088,7 +23023,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>113</v>
@@ -23131,7 +23066,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>77</v>
@@ -23193,7 +23128,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>122</v>
@@ -23222,10 +23157,10 @@
         <v>176</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -23252,13 +23187,13 @@
         <v>77</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>536</v>
+        <v>77</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>537</v>
+        <v>77</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>77</v>
@@ -23296,13 +23231,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="D200" t="s" s="2">
         <v>77</v>
@@ -23327,14 +23262,14 @@
         <v>93</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>77</v>
@@ -23403,7 +23338,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>105</v>
@@ -23506,7 +23441,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>107</v>
@@ -23611,7 +23546,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>113</v>
@@ -23654,7 +23589,7 @@
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="S203" t="s" s="2">
         <v>77</v>
@@ -23716,7 +23651,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>122</v>
@@ -23745,10 +23680,10 @@
         <v>176</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -23775,13 +23710,13 @@
         <v>77</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>548</v>
+        <v>77</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>549</v>
+        <v>77</v>
       </c>
       <c r="AA204" t="s" s="2">
         <v>77</v>
@@ -23819,13 +23754,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>77</v>
@@ -23850,14 +23785,14 @@
         <v>93</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>77</v>
@@ -23926,7 +23861,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>105</v>
@@ -24029,7 +23964,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>107</v>
@@ -24134,7 +24069,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>113</v>
@@ -24177,7 +24112,7 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>77</v>
@@ -24239,7 +24174,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>122</v>
@@ -24268,10 +24203,10 @@
         <v>176</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -24298,13 +24233,13 @@
         <v>77</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>560</v>
+        <v>77</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>561</v>
+        <v>77</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>77</v>
@@ -24342,13 +24277,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D210" t="s" s="2">
         <v>77</v>
@@ -24373,14 +24308,14 @@
         <v>93</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>77</v>
@@ -24449,7 +24384,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>105</v>
@@ -24552,7 +24487,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>107</v>
@@ -24657,7 +24592,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>113</v>
@@ -24700,7 +24635,7 @@
       </c>
       <c r="Q213" s="2"/>
       <c r="R213" t="s" s="2">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="S213" t="s" s="2">
         <v>77</v>
@@ -24762,7 +24697,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>122</v>
@@ -24791,10 +24726,10 @@
         <v>176</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -24821,13 +24756,13 @@
         <v>77</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>572</v>
+        <v>77</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>573</v>
+        <v>77</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>77</v>
@@ -24865,13 +24800,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>77</v>
@@ -24896,14 +24831,14 @@
         <v>93</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>77</v>
@@ -24972,7 +24907,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>105</v>
@@ -25075,7 +25010,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>107</v>
@@ -25180,7 +25115,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>113</v>
@@ -25223,7 +25158,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -25285,7 +25220,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>122</v>
@@ -25314,10 +25249,10 @@
         <v>176</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -25344,13 +25279,13 @@
         <v>77</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>584</v>
+        <v>77</v>
       </c>
       <c r="Z219" t="s" s="2">
-        <v>585</v>
+        <v>77</v>
       </c>
       <c r="AA219" t="s" s="2">
         <v>77</v>
@@ -25388,13 +25323,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>77</v>
@@ -25419,16 +25354,16 @@
         <v>93</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>77</v>
@@ -25497,7 +25432,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>105</v>
@@ -25600,7 +25535,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>107</v>
@@ -25705,7 +25640,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>113</v>
@@ -25748,7 +25683,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>77</v>
@@ -25810,7 +25745,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>122</v>
@@ -25836,16 +25771,16 @@
         <v>77</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -25915,13 +25850,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>77</v>
@@ -25946,16 +25881,16 @@
         <v>93</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>77</v>
@@ -26024,7 +25959,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>105</v>
@@ -26127,7 +26062,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>107</v>
@@ -26232,7 +26167,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>113</v>
@@ -26275,7 +26210,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>77</v>
@@ -26337,7 +26272,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>122</v>
@@ -26363,16 +26298,16 @@
         <v>77</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
@@ -26442,13 +26377,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>77</v>
@@ -26473,16 +26408,16 @@
         <v>93</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>77</v>
@@ -26551,7 +26486,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>105</v>
@@ -26654,7 +26589,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>107</v>
@@ -26759,7 +26694,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>113</v>
@@ -26802,7 +26737,7 @@
       </c>
       <c r="Q233" s="2"/>
       <c r="R233" t="s" s="2">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="S233" t="s" s="2">
         <v>77</v>
@@ -26864,7 +26799,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>122</v>
@@ -26890,16 +26825,16 @@
         <v>77</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
@@ -26969,13 +26904,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="D235" t="s" s="2">
         <v>77</v>
@@ -27000,16 +26935,16 @@
         <v>93</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>77</v>
@@ -27078,7 +27013,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>105</v>
@@ -27181,7 +27116,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>107</v>
@@ -27284,13 +27219,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>77</v>
@@ -27315,16 +27250,16 @@
         <v>93</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="O238" t="s" s="2">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>77</v>
@@ -27393,10 +27328,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27496,10 +27431,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27601,10 +27536,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27644,7 +27579,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>77</v>
@@ -27706,10 +27641,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27735,13 +27670,13 @@
         <v>87</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
@@ -27811,13 +27746,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D243" t="s" s="2">
         <v>77</v>
@@ -27842,16 +27777,16 @@
         <v>93</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>77</v>
@@ -27920,10 +27855,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28023,10 +27958,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28128,10 +28063,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28171,7 +28106,7 @@
       </c>
       <c r="Q246" s="2"/>
       <c r="R246" t="s" s="2">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="S246" t="s" s="2">
         <v>77</v>
@@ -28233,10 +28168,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28259,16 +28194,16 @@
         <v>77</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
@@ -28338,7 +28273,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>113</v>
@@ -28381,7 +28316,7 @@
       </c>
       <c r="Q248" s="2"/>
       <c r="R248" t="s" s="2">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="S248" t="s" s="2">
         <v>77</v>
@@ -28443,7 +28378,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>122</v>
@@ -28469,13 +28404,13 @@
         <v>77</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -28546,13 +28481,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="D250" t="s" s="2">
         <v>77</v>
@@ -28577,14 +28512,14 @@
         <v>93</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>77</v>
@@ -28653,7 +28588,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>105</v>
@@ -28756,7 +28691,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>107</v>
@@ -28861,7 +28796,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>113</v>
@@ -28966,7 +28901,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>122</v>
@@ -28992,13 +28927,13 @@
         <v>77</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -29200,13 +29135,13 @@
         <v>77</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
